--- a/WorkloadTest/App_Data/excelTemp.xlsx
+++ b/WorkloadTest/App_Data/excelTemp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="9660" activeTab="6"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ChartByCoE" sheetId="7" r:id="rId1"/>
@@ -14,13 +14,17 @@
     <sheet name="byAnalystwAdhoc" sheetId="4" r:id="rId5"/>
     <sheet name="byAnalyst" sheetId="5" r:id="rId6"/>
     <sheet name="Raw" sheetId="8" r:id="rId7"/>
+    <sheet name="Pivot" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId9"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="47">
   <si>
     <t>Routine</t>
   </si>
@@ -146,6 +150,21 @@
   </si>
   <si>
     <t>Rescheduled</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Count of Sum</t>
   </si>
 </sst>
 </file>
@@ -330,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -367,12 +386,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4F81BD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -394,10 +423,66 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hours Monthly By CoE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1554607271462702E-2"/>
+          <c:y val="5.8901974958509073E-2"/>
+          <c:w val="0.87731729906820299"/>
+          <c:h val="0.89039479090071405"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1033,19 +1118,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="90504576"/>
-        <c:axId val="92021888"/>
+        <c:axId val="88453888"/>
+        <c:axId val="88455424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90504576"/>
+        <c:axId val="88453888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92021888"/>
+        <c:crossAx val="88455424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1062,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92021888"/>
+        <c:axId val="88455424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,25 +1171,28 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90504576"/>
+        <c:crossAx val="88453888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:userShapes r:id="rId2"/>
 </c:chartSpace>
 </file>
 
@@ -1121,9 +1210,43 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hours Monthly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> By Analyst</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1554607271462702E-2"/>
+          <c:y val="5.8901974958509073E-2"/>
+          <c:w val="0.87731729906820299"/>
+          <c:h val="0.89039479090071405"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1654,19 +1777,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92070656"/>
-        <c:axId val="92072192"/>
+        <c:axId val="117521792"/>
+        <c:axId val="117523584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92070656"/>
+        <c:axId val="117521792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92072192"/>
+        <c:crossAx val="117523584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1683,7 +1807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92072192"/>
+        <c:axId val="117523584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,25 +1830,28 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92070656"/>
+        <c:crossAx val="117521792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1732,7 +1859,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -1744,7 +1871,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -1780,10 +1907,897 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05231</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12544</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="639751" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19797</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2711</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Rectangle 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2421144" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34423</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41735</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Rectangle 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4209808" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48989</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56301</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="Rectangle 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5991201" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63673</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70986</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Rectangle 5"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7787136" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78239</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85552</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="Rectangle 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9568530" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12234698" cy="6289784"/>
+    <xdr:ext cx="12229809" cy="6274866"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1804,6 +2818,1033 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05231</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12544</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="639751" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19797</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2711</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2421144" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34423</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41735</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectangle 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4209808" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48989</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56301</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rectangle 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5991201" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63673</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70986</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rectangle 5"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7787136" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78239</cdr:x>
+      <cdr:y>0.05794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85552</cdr:x>
+      <cdr:y>0.95016</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Rectangle 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9568530" y="363550"/>
+          <a:ext cx="894332" cy="5598567"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="4F81BD">
+            <a:alpha val="27059"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Poliansky, Vadim" refreshedDate="41814.410798495373" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M1048576" sheet="Raw"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Priority" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Routine/Adhoc" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CoE" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Analyst" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Purpose" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Rescheduled" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Workload" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Period" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Weight" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Sum" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Sum" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2089,6 +4130,285 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
@@ -3094,6 +5414,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A30:A35"/>
     <mergeCell ref="A72:A77"/>
     <mergeCell ref="A79:A84"/>
     <mergeCell ref="A37:A42"/>
@@ -3101,11 +5426,6 @@
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="A58:A63"/>
     <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A30:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4284,6 +6604,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A32:A36"/>
@@ -4291,11 +6616,6 @@
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -4579,8 +6899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,4 +6956,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WorkloadTest/App_Data/excelTemp.xlsx
+++ b/WorkloadTest/App_Data/excelTemp.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -380,17 +380,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +485,7 @@
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1118,20 +1118,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88453888"/>
-        <c:axId val="88455424"/>
+        <c:overlap val="100"/>
+        <c:axId val="111790720"/>
+        <c:axId val="111800704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88453888"/>
+        <c:axId val="111790720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88455424"/>
+        <c:crossAx val="111800704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1148,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88455424"/>
+        <c:axId val="111800704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88453888"/>
+        <c:crossAx val="111790720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1249,7 +1249,7 @@
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1777,20 +1777,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="117521792"/>
-        <c:axId val="117523584"/>
+        <c:overlap val="100"/>
+        <c:axId val="113875968"/>
+        <c:axId val="113885952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117521792"/>
+        <c:axId val="113875968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117523584"/>
+        <c:crossAx val="113885952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1807,7 +1807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117523584"/>
+        <c:axId val="113885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117521792"/>
+        <c:crossAx val="113875968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3786,7 +3786,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4451,7 +4451,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
@@ -4463,7 +4463,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
@@ -4487,7 +4487,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
@@ -4499,7 +4499,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4533,7 +4533,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
@@ -4545,7 +4545,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
@@ -4581,7 +4581,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -4615,7 +4615,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="11" t="s">
         <v>4</v>
       </c>
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
@@ -4639,7 +4639,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="11" t="s">
         <v>6</v>
       </c>
@@ -4651,7 +4651,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="11" t="s">
         <v>7</v>
       </c>
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="11" t="s">
         <v>8</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -4697,7 +4697,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="11" t="s">
         <v>4</v>
       </c>
@@ -4709,7 +4709,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="11" t="s">
         <v>5</v>
       </c>
@@ -4721,7 +4721,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="11" t="s">
         <v>6</v>
       </c>
@@ -4733,7 +4733,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="11" t="s">
         <v>7</v>
       </c>
@@ -4745,7 +4745,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="11" t="s">
         <v>8</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4779,7 +4779,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="11" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="11" t="s">
         <v>5</v>
       </c>
@@ -4803,7 +4803,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="11" t="s">
         <v>6</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="11" t="s">
         <v>7</v>
       </c>
@@ -4827,7 +4827,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="11" t="s">
         <v>8</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="11" t="s">
         <v>4</v>
       </c>
@@ -4873,7 +4873,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
         <v>5</v>
       </c>
@@ -4885,7 +4885,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="11" t="s">
         <v>6</v>
       </c>
@@ -4897,7 +4897,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="11" t="s">
         <v>7</v>
       </c>
@@ -4909,7 +4909,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="11" t="s">
         <v>8</v>
       </c>
@@ -4929,7 +4929,7 @@
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -4943,7 +4943,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="11" t="s">
         <v>4</v>
       </c>
@@ -4955,7 +4955,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
@@ -4967,7 +4967,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="11" t="s">
         <v>6</v>
       </c>
@@ -4979,7 +4979,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="11" t="s">
         <v>7</v>
       </c>
@@ -4991,7 +4991,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="11" t="s">
         <v>8</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -5025,7 +5025,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="11" t="s">
         <v>4</v>
       </c>
@@ -5037,7 +5037,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="11" t="s">
         <v>5</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="11" t="s">
         <v>6</v>
       </c>
@@ -5061,7 +5061,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="11" t="s">
         <v>7</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="11" t="s">
         <v>8</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -5107,7 +5107,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="11" t="s">
         <v>4</v>
       </c>
@@ -5119,7 +5119,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="11" t="s">
         <v>5</v>
       </c>
@@ -5131,7 +5131,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="11" t="s">
         <v>6</v>
       </c>
@@ -5143,7 +5143,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="11" t="s">
         <v>7</v>
       </c>
@@ -5155,7 +5155,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="11" t="s">
         <v>8</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -5189,7 +5189,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="11" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="11" t="s">
         <v>5</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="11" t="s">
         <v>6</v>
       </c>
@@ -5225,7 +5225,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="11" t="s">
         <v>7</v>
       </c>
@@ -5237,7 +5237,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="11" t="s">
         <v>8</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -5271,7 +5271,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="11" t="s">
         <v>4</v>
       </c>
@@ -5283,7 +5283,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="11" t="s">
         <v>5</v>
       </c>
@@ -5295,7 +5295,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="11" t="s">
         <v>6</v>
       </c>
@@ -5307,7 +5307,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="11" t="s">
         <v>7</v>
       </c>
@@ -5319,7 +5319,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="11" t="s">
         <v>8</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -5353,7 +5353,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="11" t="s">
         <v>4</v>
       </c>
@@ -5365,7 +5365,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="11" t="s">
         <v>5</v>
       </c>
@@ -5377,7 +5377,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="11" t="s">
         <v>6</v>
       </c>
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="11" t="s">
         <v>7</v>
       </c>
@@ -5401,7 +5401,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="11" t="s">
         <v>8</v>
       </c>
@@ -5771,7 +5771,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5785,7 +5785,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
@@ -5797,7 +5797,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
@@ -5809,7 +5809,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -5821,7 +5821,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
@@ -5841,7 +5841,7 @@
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
@@ -5867,7 +5867,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
@@ -5879,7 +5879,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
@@ -5891,7 +5891,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5925,7 +5925,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
@@ -5937,7 +5937,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
@@ -5949,7 +5949,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
@@ -5961,7 +5961,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="18" t="s">
         <v>24</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -5995,7 +5995,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="11" t="s">
         <v>22</v>
       </c>
@@ -6019,7 +6019,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="11" t="s">
         <v>23</v>
       </c>
@@ -6031,7 +6031,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
@@ -6101,7 +6101,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="18" t="s">
         <v>24</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -6135,7 +6135,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="11" t="s">
         <v>21</v>
       </c>
@@ -6147,7 +6147,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="11" t="s">
         <v>22</v>
       </c>
@@ -6159,7 +6159,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="11" t="s">
         <v>23</v>
       </c>
@@ -6171,7 +6171,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="18" t="s">
         <v>24</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -6205,7 +6205,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
         <v>21</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="11" t="s">
         <v>22</v>
       </c>
@@ -6229,7 +6229,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="11" t="s">
         <v>23</v>
       </c>
@@ -6241,7 +6241,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="18" t="s">
         <v>24</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -6275,7 +6275,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="11" t="s">
         <v>21</v>
       </c>
@@ -6287,7 +6287,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="11" t="s">
         <v>22</v>
       </c>
@@ -6299,7 +6299,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="11" t="s">
         <v>23</v>
       </c>
@@ -6311,7 +6311,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="18" t="s">
         <v>24</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -6345,7 +6345,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="11" t="s">
         <v>21</v>
       </c>
@@ -6357,7 +6357,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="11" t="s">
         <v>22</v>
       </c>
@@ -6369,7 +6369,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="11" t="s">
         <v>23</v>
       </c>
@@ -6381,7 +6381,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="18" t="s">
         <v>24</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -6415,7 +6415,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="11" t="s">
         <v>21</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="11" t="s">
         <v>22</v>
       </c>
@@ -6439,7 +6439,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="11" t="s">
         <v>23</v>
       </c>
@@ -6451,7 +6451,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="18" t="s">
         <v>24</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -6485,7 +6485,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="11" t="s">
         <v>21</v>
       </c>
@@ -6497,7 +6497,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="11" t="s">
         <v>22</v>
       </c>
@@ -6509,7 +6509,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="11" t="s">
         <v>23</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="18" t="s">
         <v>24</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="D67" s="16"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -6555,7 +6555,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="11" t="s">
         <v>21</v>
       </c>
@@ -6567,7 +6567,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="11" t="s">
         <v>22</v>
       </c>
@@ -6579,7 +6579,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="11" t="s">
         <v>23</v>
       </c>
@@ -6591,7 +6591,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="11" t="s">
         <v>24</v>
       </c>
@@ -6974,15 +6974,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
@@ -6993,18 +6993,18 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
